--- a/server/excel/daysCb(每日成本)_Proto.xlsx
+++ b/server/excel/daysCb(每日成本)_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" firstSheet="5" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="CbhsDaysJjcb(间接成本每日成本)" sheetId="1" r:id="rId1"/>
@@ -691,10 +691,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -734,52 +734,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,16 +756,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,16 +793,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,8 +809,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,6 +838,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -870,8 +853,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,25 +898,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,13 +946,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,13 +988,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,13 +1024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,13 +1048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,73 +1066,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,16 +1119,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,26 +1166,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,16 +1196,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1204,17 +1215,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1223,10 +1223,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1235,133 +1235,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1737,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25"/>
@@ -5567,7 +5567,7 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>

--- a/server/excel/daysCb(每日成本)_Proto.xlsx
+++ b/server/excel/daysCb(每日成本)_Proto.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225">
   <si>
     <t>属性名</t>
   </si>
@@ -284,55 +284,67 @@
     <t>xlf_clf</t>
   </si>
   <si>
-    <t>必填|修理费-差旅费</t>
+    <t>必填|其他费用-差旅费</t>
   </si>
   <si>
     <t>xlf_cailiaofei</t>
   </si>
   <si>
-    <t>必填|修理费-材料费</t>
+    <t>必填|其他费用-材料费</t>
   </si>
   <si>
     <t>xlf_flf</t>
   </si>
   <si>
-    <t>必填|修理费-福利费</t>
+    <t>必填|其他费用-福利费</t>
   </si>
   <si>
     <t>xlf_ywjf</t>
   </si>
   <si>
-    <t>必填|修理费-业务经费</t>
+    <t>必填|其他费用-业务经费</t>
   </si>
   <si>
     <t>xlf_sdf</t>
   </si>
   <si>
-    <t>必填|修理费-水电费</t>
+    <t>必填|其他费用-水电费</t>
   </si>
   <si>
     <t>xlf_scf</t>
   </si>
   <si>
-    <t>必填|修理费-审车费</t>
+    <t>必填|其他费用-审车费</t>
   </si>
   <si>
     <t>xlf_kyjf</t>
   </si>
   <si>
-    <t>必填|修理费-科研经费</t>
+    <t>必填|其他费用-科研经费</t>
   </si>
   <si>
     <t>xlf_cljbxf</t>
   </si>
   <si>
-    <t>必填|修理费-车辆及保险费</t>
+    <t>必填|其他费用-车辆及保险费</t>
+  </si>
+  <si>
+    <t>xlf_bhfy</t>
+  </si>
+  <si>
+    <t>必填|其他费用-保函费用</t>
+  </si>
+  <si>
+    <t>xlf_gzzrx</t>
+  </si>
+  <si>
+    <t>必填|其他费用-雇主责任险</t>
   </si>
   <si>
     <t>xlf_qt</t>
   </si>
   <si>
-    <t>必填|修理费-其他</t>
+    <t>必填|其他费用-其他</t>
   </si>
   <si>
     <t>aqfy_ygsz</t>
@@ -691,10 +703,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -734,7 +746,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,14 +754,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,15 +791,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -794,25 +808,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -830,6 +835,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,17 +851,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -861,19 +866,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -898,7 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,133 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,6 +952,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1072,13 +1084,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,39 +1131,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1166,17 +1145,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,17 +1198,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1223,10 +1235,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1235,19 +1247,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1256,112 +1268,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1735,10 +1747,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25"/>
@@ -2313,27 +2325,47 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" ht="11" customHeight="1" spans="1:4">
+    <row r="43" s="2" customFormat="1" ht="11" customHeight="1" spans="1:13">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" ht="11" customHeight="1" spans="1:4">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="11" customHeight="1" spans="1:13">
       <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
     </row>
     <row r="45" ht="11" customHeight="1" spans="1:4">
       <c r="A45" s="1" t="s">
@@ -2357,38 +2389,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
+    <row r="47" ht="11" customHeight="1" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="1" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>114</v>
       </c>
@@ -2399,54 +2422,85 @@
         <v>26</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A50" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="1" t="s">
+    <row r="51" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A52" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A51" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="1" t="s">
+    <row r="53" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A53" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:11">
-      <c r="A52" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="1">
+    <row r="54" s="1" customFormat="1" spans="1:11">
+      <c r="A54" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="1">
         <v>100</v>
       </c>
     </row>
@@ -2519,7 +2573,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -2697,10 +2751,10 @@
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -2718,10 +2772,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -2739,10 +2793,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -2760,10 +2814,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -2781,10 +2835,10 @@
     </row>
     <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -2802,10 +2856,10 @@
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -2816,10 +2870,10 @@
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -2833,10 +2887,10 @@
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -2850,10 +2904,10 @@
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -2864,10 +2918,10 @@
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -2878,10 +2932,10 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="11.25" spans="1:11">
       <c r="A21" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
@@ -2961,7 +3015,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3004,10 +3058,10 @@
     </row>
     <row r="4" customHeight="1" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
@@ -3025,10 +3079,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
@@ -3162,10 +3216,10 @@
     </row>
     <row r="12" customFormat="1" customHeight="1" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -3185,10 +3239,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -3208,10 +3262,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -3231,10 +3285,10 @@
     </row>
     <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -3252,10 +3306,10 @@
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -3275,10 +3329,10 @@
     </row>
     <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -3298,10 +3352,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -3319,10 +3373,10 @@
     </row>
     <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -3343,7 +3397,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -3361,10 +3415,10 @@
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
@@ -3375,10 +3429,10 @@
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>26</v>
@@ -3392,10 +3446,10 @@
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
@@ -3409,10 +3463,10 @@
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
@@ -3423,10 +3477,10 @@
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>26</v>
@@ -3437,10 +3491,10 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="11.25" spans="1:11">
       <c r="A26" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
@@ -3520,7 +3574,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3677,10 +3731,10 @@
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -3698,10 +3752,10 @@
     </row>
     <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -3722,7 +3776,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -3740,10 +3794,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -3763,10 +3817,10 @@
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>26</v>
@@ -3777,10 +3831,10 @@
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
@@ -3794,10 +3848,10 @@
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -3811,10 +3865,10 @@
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -3825,10 +3879,10 @@
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -3839,10 +3893,10 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="11.25" spans="1:11">
       <c r="A19" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -3922,7 +3976,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -3965,10 +4019,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
@@ -3986,10 +4040,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
@@ -4009,10 +4063,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
@@ -4030,10 +4084,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="1" t="s">
@@ -4167,10 +4221,10 @@
     </row>
     <row r="14" s="10" customFormat="1" ht="11.25" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -4188,10 +4242,10 @@
     </row>
     <row r="15" s="10" customFormat="1" ht="11.25" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -4209,10 +4263,10 @@
     </row>
     <row r="16" s="10" customFormat="1" ht="11.25" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -4230,10 +4284,10 @@
     </row>
     <row r="17" s="10" customFormat="1" ht="11.25" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -4253,10 +4307,10 @@
     </row>
     <row r="18" s="10" customFormat="1" ht="11.25" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -4276,10 +4330,10 @@
     </row>
     <row r="19" s="10" customFormat="1" ht="11.25" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -4299,10 +4353,10 @@
     </row>
     <row r="20" s="10" customFormat="1" ht="11.25" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -4322,10 +4376,10 @@
     </row>
     <row r="21" customFormat="1" customHeight="1" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>37</v>
@@ -4334,10 +4388,10 @@
     </row>
     <row r="22" s="10" customFormat="1" ht="11.25" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -4355,10 +4409,10 @@
     </row>
     <row r="23" s="10" customFormat="1" ht="11.25" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
@@ -4376,10 +4430,10 @@
     </row>
     <row r="24" customHeight="1" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
@@ -4397,10 +4451,10 @@
     </row>
     <row r="25" customHeight="1" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -4418,10 +4472,10 @@
     </row>
     <row r="26" customHeight="1" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
@@ -4439,10 +4493,10 @@
     </row>
     <row r="27" customHeight="1" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
@@ -4463,7 +4517,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
@@ -4481,10 +4535,10 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>26</v>
@@ -4495,10 +4549,10 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>26</v>
@@ -4512,10 +4566,10 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>26</v>
@@ -4529,10 +4583,10 @@
     </row>
     <row r="32" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>26</v>
@@ -4543,10 +4597,10 @@
     </row>
     <row r="33" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>26</v>
@@ -4557,10 +4611,10 @@
     </row>
     <row r="34" s="1" customFormat="1" ht="11.25" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>26</v>
@@ -4640,7 +4694,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -4683,10 +4737,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
@@ -4704,10 +4758,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
@@ -4844,7 +4898,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -4862,10 +4916,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -4885,10 +4939,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -4908,10 +4962,10 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>26</v>
@@ -4922,10 +4976,10 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -4939,10 +4993,10 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -4956,10 +5010,10 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -4970,10 +5024,10 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -4984,10 +5038,10 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="11.25" spans="1:11">
       <c r="A20" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -5067,7 +5121,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -5089,10 +5143,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
@@ -5110,10 +5164,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
@@ -5271,7 +5325,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -5289,10 +5343,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -5310,10 +5364,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -5333,10 +5387,10 @@
     </row>
     <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -5354,10 +5408,10 @@
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -5377,10 +5431,10 @@
     </row>
     <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -5400,10 +5454,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -5423,10 +5477,10 @@
     </row>
     <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
@@ -5444,10 +5498,10 @@
     </row>
     <row r="20" customHeight="1" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -5465,10 +5519,10 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
@@ -5479,10 +5533,10 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>26</v>
@@ -5496,10 +5550,10 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
@@ -5513,10 +5567,10 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
@@ -5527,10 +5581,10 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>26</v>
@@ -5541,10 +5595,10 @@
     </row>
     <row r="26" s="1" customFormat="1" ht="11.25" spans="1:11">
       <c r="A26" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
@@ -5624,7 +5678,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -5667,10 +5721,10 @@
     </row>
     <row r="4" customFormat="1" customHeight="1" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
@@ -5688,10 +5742,10 @@
     </row>
     <row r="5" customFormat="1" customHeight="1" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
@@ -5711,10 +5765,10 @@
     </row>
     <row r="6" customFormat="1" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -5732,10 +5786,10 @@
     </row>
     <row r="7" customFormat="1" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -5872,7 +5926,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
@@ -5890,10 +5944,10 @@
     </row>
     <row r="15" customHeight="1" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -5913,10 +5967,10 @@
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -5936,10 +5990,10 @@
     </row>
     <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
@@ -5957,10 +6011,10 @@
     </row>
     <row r="18" customHeight="1" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -5978,10 +6032,10 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -5992,10 +6046,10 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
@@ -6009,10 +6063,10 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>26</v>
@@ -6026,10 +6080,10 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>26</v>
@@ -6040,10 +6094,10 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>26</v>
@@ -6054,10 +6108,10 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="11.25" spans="1:11">
       <c r="A24" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
